--- a/docs/Checklist-withFormula.xlsx
+++ b/docs/Checklist-withFormula.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Ngoc Thao\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sinhvien\Session3\CTDL_GT\BTTH\Lab3\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D4B823-7F9A-4832-8DCE-133E4248184E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6A754A5-1609-45AF-BA16-D558A392465D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{8CE66FDF-E979-4E9F-A8C3-831D61C41828}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{8CE66FDF-E979-4E9F-A8C3-831D61C41828}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="3" r:id="rId1"/>
@@ -197,7 +197,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,53 +314,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -365,15 +332,56 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D07BC3-C8CB-4F03-A421-F70981A8BB46}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -760,7 +768,8 @@
     <col min="4" max="4" width="16.453125" customWidth="1"/>
     <col min="5" max="5" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.36328125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.36328125" style="8" customWidth="1"/>
     <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -772,17 +781,17 @@
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="17"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="18" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="19" t="s">
         <v>29</v>
       </c>
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -792,438 +801,438 @@
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H2" s="1">
-        <v>5678</v>
+        <v>21120504</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F3" s="11"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="14">
+        <v>21120504</v>
+      </c>
+      <c r="D3" s="14">
+        <v>21120504</v>
+      </c>
+      <c r="E3" s="14">
+        <v>21120504</v>
+      </c>
+      <c r="F3" s="18"/>
       <c r="G3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H3" s="1">
-        <v>5678</v>
+        <v>21120505</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F4" s="11"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="14">
+        <v>21120505</v>
+      </c>
+      <c r="D4" s="14">
+        <v>21120505</v>
+      </c>
+      <c r="E4" s="14">
+        <v>21120505</v>
+      </c>
+      <c r="F4" s="18"/>
       <c r="G4" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H4" s="1">
-        <v>5678</v>
+        <v>21120521</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F5" s="11"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="14">
+        <v>21120521</v>
+      </c>
+      <c r="D5" s="14">
+        <v>21120521</v>
+      </c>
+      <c r="E5" s="14">
+        <v>21120521</v>
+      </c>
+      <c r="F5" s="18"/>
       <c r="G5" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H5" s="1">
-        <v>5678</v>
+        <v>21120499</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F6" s="11"/>
+      <c r="A6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="14">
+        <v>21120499</v>
+      </c>
+      <c r="D6" s="14">
+        <v>21120499</v>
+      </c>
+      <c r="E6" s="14">
+        <v>21120499</v>
+      </c>
+      <c r="F6" s="18"/>
       <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="1">
-        <v>5678</v>
+        <v>21120499</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="14">
+        <v>21120504</v>
+      </c>
+      <c r="D7" s="14">
+        <v>21120504</v>
+      </c>
+      <c r="E7" s="14">
+        <v>21120504</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="18" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="14">
+        <v>21120505</v>
+      </c>
+      <c r="D8" s="14">
+        <v>21120505</v>
+      </c>
+      <c r="E8" s="14">
+        <v>21120505</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F9" s="11"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="14">
+        <v>21120521</v>
+      </c>
+      <c r="D9" s="14">
+        <v>21120521</v>
+      </c>
+      <c r="E9" s="14">
+        <v>21120521</v>
+      </c>
+      <c r="F9" s="18"/>
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="1">
-        <v>4321</v>
+        <v>21120504</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1234</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F10" s="11"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="14">
+        <v>21120499</v>
+      </c>
+      <c r="D10" s="14">
+        <v>21120499</v>
+      </c>
+      <c r="E10" s="14">
+        <v>21120499</v>
+      </c>
+      <c r="F10" s="18"/>
       <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="1">
-        <v>4321</v>
+        <v>21120505</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8"/>
+      <c r="A11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15"/>
       <c r="C11" s="1">
-        <v>1234</v>
+        <v>21120504</v>
       </c>
       <c r="D11" s="1">
-        <v>1234</v>
+        <v>21120504</v>
       </c>
       <c r="E11" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F11" s="11"/>
+        <v>21120504</v>
+      </c>
+      <c r="F11" s="18"/>
       <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="1">
-        <v>4321</v>
+        <v>21120521</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="1">
-        <v>1234</v>
+        <v>21120505</v>
       </c>
       <c r="D12" s="1">
-        <v>1234</v>
+        <v>21120505</v>
       </c>
       <c r="E12" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F12" s="11"/>
+        <v>21120505</v>
+      </c>
+      <c r="F12" s="18"/>
       <c r="G12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="1">
-        <v>4321</v>
+        <v>21120499</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="1">
-        <v>1234</v>
+        <v>21120521</v>
       </c>
       <c r="D13" s="1">
-        <v>1234</v>
+        <v>21120521</v>
       </c>
       <c r="E13" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F13" s="11"/>
+        <v>21120521</v>
+      </c>
+      <c r="F13" s="18"/>
       <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H13" s="1">
-        <v>4321</v>
+        <v>21120499</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="21"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="8"/>
       <c r="J15"/>
     </row>
     <row r="16" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="8"/>
       <c r="J16"/>
     </row>
     <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="25">
-        <v>8765</v>
-      </c>
-      <c r="D17" s="25">
-        <v>8765</v>
-      </c>
-      <c r="E17" s="21"/>
+      <c r="C17" s="1">
+        <v>21120521</v>
+      </c>
+      <c r="D17" s="1">
+        <v>21120504</v>
+      </c>
+      <c r="E17" s="8"/>
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="25">
-        <v>8765</v>
-      </c>
-      <c r="D18" s="25">
-        <v>8765</v>
-      </c>
-      <c r="E18" s="21"/>
+      <c r="C18" s="1">
+        <v>21120521</v>
+      </c>
+      <c r="D18" s="1">
+        <v>21120504</v>
+      </c>
+      <c r="E18" s="8"/>
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="14"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="25">
-        <v>8765</v>
-      </c>
-      <c r="D19" s="25">
-        <v>8765</v>
-      </c>
-      <c r="E19" s="21"/>
+      <c r="C19" s="1">
+        <v>21120521</v>
+      </c>
+      <c r="D19" s="1">
+        <v>21120504</v>
+      </c>
+      <c r="E19" s="8"/>
       <c r="J19"/>
     </row>
     <row r="20" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="25">
-        <v>8765</v>
-      </c>
-      <c r="D20" s="25">
-        <v>8765</v>
-      </c>
-      <c r="E20" s="21"/>
+      <c r="C20" s="1">
+        <v>21120521</v>
+      </c>
+      <c r="D20" s="1">
+        <v>21120504</v>
+      </c>
+      <c r="E20" s="8"/>
       <c r="J20"/>
     </row>
     <row r="21" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="25">
-        <v>8765</v>
-      </c>
-      <c r="D21" s="25">
-        <v>8765</v>
-      </c>
-      <c r="E21" s="21"/>
+      <c r="C21" s="1">
+        <v>21120499</v>
+      </c>
+      <c r="D21" s="1">
+        <v>21120505</v>
+      </c>
+      <c r="E21" s="8"/>
       <c r="J21"/>
     </row>
     <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="25">
-        <v>8765</v>
-      </c>
-      <c r="D22" s="25">
-        <v>8765</v>
-      </c>
-      <c r="E22" s="21"/>
+      <c r="C22" s="1">
+        <v>21120499</v>
+      </c>
+      <c r="D22" s="1">
+        <v>21120505</v>
+      </c>
+      <c r="E22" s="8"/>
       <c r="J22"/>
     </row>
     <row r="23" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="25">
-        <v>8765</v>
-      </c>
-      <c r="D23" s="25">
-        <v>8765</v>
-      </c>
-      <c r="E23" s="21"/>
+      <c r="C23" s="1">
+        <v>21120499</v>
+      </c>
+      <c r="D23" s="1">
+        <v>21120505</v>
+      </c>
+      <c r="E23" s="8"/>
       <c r="J23"/>
     </row>
     <row r="24" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="14"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="25">
-        <v>8765</v>
-      </c>
-      <c r="D24" s="25">
-        <v>8765</v>
-      </c>
-      <c r="E24" s="21"/>
+      <c r="C24" s="1">
+        <v>21120499</v>
+      </c>
+      <c r="D24" s="1">
+        <v>21120505</v>
+      </c>
+      <c r="E24" s="8"/>
       <c r="J24"/>
     </row>
     <row r="27" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="21"/>
+      <c r="I27" s="8"/>
       <c r="J27"/>
     </row>
     <row r="28" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B28" s="22">
-        <v>1234</v>
-      </c>
-      <c r="C28" s="24" t="s">
+      <c r="B28" s="9">
+        <v>21120504</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="21"/>
+      <c r="I28" s="8"/>
       <c r="J28"/>
     </row>
     <row r="29" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B29" s="22">
-        <v>5678</v>
-      </c>
-      <c r="I29" s="21"/>
+      <c r="B29" s="9">
+        <v>21120505</v>
+      </c>
+      <c r="I29" s="8"/>
       <c r="J29"/>
     </row>
     <row r="30" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B30" s="22">
-        <v>4321</v>
-      </c>
-      <c r="I30" s="21"/>
+      <c r="B30" s="9">
+        <v>21120521</v>
+      </c>
+      <c r="I30" s="8"/>
       <c r="J30"/>
     </row>
     <row r="31" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B31" s="22">
-        <v>8765</v>
-      </c>
-      <c r="I31" s="21"/>
+      <c r="B31" s="9">
+        <v>21120499</v>
+      </c>
+      <c r="I31" s="8"/>
       <c r="J31"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I32" s="21"/>
+      <c r="I32" s="8"/>
       <c r="J32"/>
     </row>
   </sheetData>
@@ -1233,11 +1242,6 @@
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:F13"/>
@@ -1249,8 +1253,14 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1258,7 +1268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F7E3AF-06FB-492B-ABC3-48C15B5C1CC2}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -1280,17 +1290,17 @@
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="17"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="18" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="19" t="s">
         <v>29</v>
       </c>
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1310,7 @@
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="6" t="s">
         <v>30</v>
       </c>
@@ -1309,10 +1319,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="1">
         <v>5</v>
       </c>
@@ -1322,7 +1332,7 @@
       <c r="E3" s="1">
         <v>10</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="6" t="s">
         <v>31</v>
       </c>
@@ -1331,10 +1341,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1">
         <v>5</v>
       </c>
@@ -1344,7 +1354,7 @@
       <c r="E4" s="1">
         <v>10</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="6" t="s">
         <v>32</v>
       </c>
@@ -1353,10 +1363,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="1">
         <v>5</v>
       </c>
@@ -1366,7 +1376,7 @@
       <c r="E5" s="1">
         <v>10</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="6" t="s">
         <v>33</v>
       </c>
@@ -1375,10 +1385,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8"/>
+      <c r="A6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
@@ -1388,7 +1398,7 @@
       <c r="E6" s="1">
         <v>10</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
@@ -1397,10 +1407,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="1">
         <v>5</v>
       </c>
@@ -1410,15 +1420,15 @@
       <c r="E7" s="1">
         <v>10</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="1">
         <v>5</v>
       </c>
@@ -1428,17 +1438,17 @@
       <c r="E8" s="1">
         <v>10</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="18"/>
+      <c r="G8" s="19" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="1">
         <v>5</v>
       </c>
@@ -1448,7 +1458,7 @@
       <c r="E9" s="1">
         <v>10</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
@@ -1457,10 +1467,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1470,7 +1480,7 @@
       <c r="E10" s="1">
         <v>10</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
@@ -1479,10 +1489,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8"/>
+      <c r="A11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15"/>
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -1492,7 +1502,7 @@
       <c r="E11" s="1">
         <v>10</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
@@ -1501,10 +1511,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="1">
         <v>5</v>
       </c>
@@ -1514,7 +1524,7 @@
       <c r="E12" s="1">
         <v>10</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1523,10 +1533,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="1">
         <v>5</v>
       </c>
@@ -1536,7 +1546,7 @@
       <c r="E13" s="1">
         <v>10</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
@@ -1545,35 +1555,35 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="18"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1587,7 +1597,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1599,7 +1609,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="14"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1611,7 +1621,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1623,7 +1633,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1637,7 +1647,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,7 +1659,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1661,7 +1671,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="14"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1673,51 +1683,51 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="23">
+      <c r="A27" s="10">
         <f>Students!B28</f>
-        <v>1234</v>
-      </c>
-      <c r="B27" s="23">
+        <v>21120504</v>
+      </c>
+      <c r="B27" s="10">
         <f>SUMIFS($C$3:$E$13,Students!$C$3:$E$13,Grader!$A27)+SUMIFS($H$2:$H$6,Students!$H$2:$H$6,Grader!$A27)+SUMIFS($H$9:$H$13,Students!$H$9:$H$13,Grader!$A27)+SUMIFS($C$17:$D$24,Students!$C$17:$D$24,Grader!$A27)</f>
-        <v>220</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="23">
+      <c r="A28" s="10">
         <f>Students!B29</f>
-        <v>5678</v>
-      </c>
-      <c r="B28" s="23">
+        <v>21120505</v>
+      </c>
+      <c r="B28" s="10">
         <f>SUMIFS($C$3:$E$13,Students!$C$3:$E$13,Grader!$A28)+SUMIFS($H$2:$H$6,Students!$H$2:$H$6,Grader!$A28)+SUMIFS($H$9:$H$13,Students!$H$9:$H$13,Grader!$A28)+SUMIFS($C$17:$D$24,Students!$C$17:$D$24,Grader!$A28)</f>
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="23">
+      <c r="A29" s="10">
         <f>Students!B30</f>
-        <v>4321</v>
-      </c>
-      <c r="B29" s="23">
+        <v>21120521</v>
+      </c>
+      <c r="B29" s="10">
         <f>SUMIFS($C$3:$E$13,Students!$C$3:$E$13,Grader!$A29)+SUMIFS($H$2:$H$6,Students!$H$2:$H$6,Grader!$A29)+SUMIFS($H$9:$H$13,Students!$H$9:$H$13,Grader!$A29)+SUMIFS($C$17:$D$24,Students!$C$17:$D$24,Grader!$A29)</f>
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="23">
+      <c r="A30" s="10">
         <f>Students!B31</f>
-        <v>8765</v>
-      </c>
-      <c r="B30" s="23">
+        <v>21120499</v>
+      </c>
+      <c r="B30" s="10">
         <f>SUMIFS($C$3:$E$13,Students!$C$3:$E$13,Grader!$A30)+SUMIFS($H$2:$H$6,Students!$H$2:$H$6,Grader!$A30)+SUMIFS($H$9:$H$13,Students!$H$9:$H$13,Grader!$A30)+SUMIFS($C$17:$D$24,Students!$C$17:$D$24,Grader!$A30)</f>
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1727,11 +1737,6 @@
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:F13"/>
@@ -1743,6 +1748,11 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1850,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BB2285-79C2-4582-B649-19B1BF8CE13D}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1872,17 +1882,17 @@
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="17"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="18" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="19" t="s">
         <v>29</v>
       </c>
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1892,19 +1902,19 @@
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="1">
         <v>5</v>
       </c>
@@ -1914,19 +1924,19 @@
       <c r="E3" s="3">
         <v>10</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1">
         <v>5</v>
       </c>
@@ -1936,19 +1946,19 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="1">
         <v>5</v>
       </c>
@@ -1958,19 +1968,19 @@
       <c r="E5" s="3">
         <v>10</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8"/>
+      <c r="A6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
@@ -1980,19 +1990,19 @@
       <c r="E6" s="3">
         <v>10</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="1">
         <v>5</v>
       </c>
@@ -2002,15 +2012,15 @@
       <c r="E7" s="3">
         <v>10</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="1">
         <v>5</v>
       </c>
@@ -2020,17 +2030,17 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="18"/>
+      <c r="G8" s="19" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="1">
         <v>5</v>
       </c>
@@ -2040,7 +2050,7 @@
       <c r="E9" s="3">
         <v>10</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
@@ -2049,10 +2059,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -2062,7 +2072,7 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
@@ -2071,10 +2081,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8"/>
+      <c r="A11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15"/>
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -2084,7 +2094,7 @@
       <c r="E11" s="3">
         <v>10</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
@@ -2093,10 +2103,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="1">
         <v>5</v>
       </c>
@@ -2106,7 +2116,7 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="7" t="s">
         <v>26</v>
       </c>
@@ -2114,11 +2124,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="1">
         <v>5</v>
       </c>
@@ -2128,7 +2138,7 @@
       <c r="E13" s="3">
         <v>10</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
@@ -2137,22 +2147,22 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="18"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -2161,10 +2171,10 @@
     <row r="16" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="4"/>
@@ -2172,13 +2182,13 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="1">
         <v>10</v>
       </c>
       <c r="D17" s="1">
@@ -2189,11 +2199,11 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="1">
         <v>10</v>
       </c>
       <c r="D18" s="1">
@@ -2204,11 +2214,11 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="14"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="1">
         <v>10</v>
       </c>
       <c r="D19" s="1">
@@ -2219,11 +2229,11 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="1">
         <v>10</v>
       </c>
       <c r="D20" s="1">
@@ -2234,13 +2244,13 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="1">
         <v>10</v>
       </c>
       <c r="D21" s="1">
@@ -2251,11 +2261,11 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="1">
         <v>10</v>
       </c>
       <c r="D22" s="1">
@@ -2266,11 +2276,11 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="1">
         <v>10</v>
       </c>
       <c r="D23" s="1">
@@ -2281,11 +2291,11 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="14"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="1">
         <v>10</v>
       </c>
       <c r="D24" s="1">
@@ -2297,7 +2307,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A15:D15"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G8:H8"/>
@@ -2318,7 +2327,211 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049FE49361E2F644496E301D3F4C5E040" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="79483e5e6fe987afc51c660024dadd90">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4e1e22e3-cd4d-486e-b858-2c234ae4ceaf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b526d43c98766bc29da91afd3efa5d5e" ns3:_="">
+    <xsd:import namespace="4e1e22e3-cd4d-486e-b858-2c234ae4ceaf"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4e1e22e3-cd4d-486e-b858-2c234ae4ceaf" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05A9130A-641B-46B0-AEB7-7FAA47BE3D38}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4e1e22e3-cd4d-486e-b858-2c234ae4ceaf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1C46DBC-9747-43C5-8BD2-A3AA9186CCF6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4e1e22e3-cd4d-486e-b858-2c234ae4ceaf"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3E385B-6A76-4FBB-B927-F57099B6C822}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/Checklist-withFormula.xlsx
+++ b/docs/Checklist-withFormula.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sinhvien\Session3\CTDL_GT\BTTH\Lab3\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6A754A5-1609-45AF-BA16-D558A392465D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31EF711-89B0-4FBA-B045-E4943205C40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{8CE66FDF-E979-4E9F-A8C3-831D61C41828}"/>
   </bookViews>
@@ -342,18 +342,36 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -363,24 +381,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -757,7 +757,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -774,24 +774,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="16"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -801,7 +801,7 @@
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="6" t="s">
         <v>30</v>
       </c>
@@ -810,10 +810,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="14">
         <v>21120504</v>
       </c>
@@ -823,7 +823,7 @@
       <c r="E3" s="14">
         <v>21120504</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="6" t="s">
         <v>31</v>
       </c>
@@ -832,10 +832,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="14">
         <v>21120505</v>
       </c>
@@ -845,7 +845,7 @@
       <c r="E4" s="14">
         <v>21120505</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="6" t="s">
         <v>32</v>
       </c>
@@ -854,10 +854,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="14">
         <v>21120521</v>
       </c>
@@ -867,7 +867,7 @@
       <c r="E5" s="14">
         <v>21120521</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="6" t="s">
         <v>33</v>
       </c>
@@ -876,10 +876,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15"/>
+      <c r="A6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19"/>
       <c r="C6" s="14">
         <v>21120499</v>
       </c>
@@ -889,7 +889,7 @@
       <c r="E6" s="14">
         <v>21120499</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
@@ -898,10 +898,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="14">
         <v>21120504</v>
       </c>
@@ -911,15 +911,15 @@
       <c r="E7" s="14">
         <v>21120504</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="14">
         <v>21120505</v>
       </c>
@@ -929,17 +929,17 @@
       <c r="E8" s="14">
         <v>21120505</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19" t="s">
+      <c r="F8" s="22"/>
+      <c r="G8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="14">
         <v>21120521</v>
       </c>
@@ -949,7 +949,7 @@
       <c r="E9" s="14">
         <v>21120521</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
@@ -958,10 +958,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="14">
         <v>21120499</v>
       </c>
@@ -971,7 +971,7 @@
       <c r="E10" s="14">
         <v>21120499</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
@@ -980,10 +980,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19"/>
       <c r="C11" s="1">
         <v>21120504</v>
       </c>
@@ -993,7 +993,7 @@
       <c r="E11" s="1">
         <v>21120504</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
@@ -1002,10 +1002,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="1">
         <v>21120505</v>
       </c>
@@ -1015,7 +1015,7 @@
       <c r="E12" s="1">
         <v>21120505</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1024,10 +1024,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="1">
         <v>21120521</v>
       </c>
@@ -1037,7 +1037,7 @@
       <c r="E13" s="1">
         <v>21120521</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
@@ -1046,22 +1046,22 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="19"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="8"/>
       <c r="J15"/>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="J16"/>
     </row>
     <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1094,7 +1094,7 @@
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1108,7 +1108,7 @@
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="J19"/>
     </row>
     <row r="20" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1136,7 +1136,7 @@
       <c r="J20"/>
     </row>
     <row r="21" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1152,7 +1152,7 @@
       <c r="J21"/>
     </row>
     <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="23"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="J22"/>
     </row>
     <row r="23" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="23"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1180,7 +1180,7 @@
       <c r="J23"/>
     </row>
     <row r="24" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="23"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1237,11 +1237,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:H14"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:F13"/>
@@ -1258,6 +1253,11 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1283,24 +1283,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="16"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1310,7 @@
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="6" t="s">
         <v>30</v>
       </c>
@@ -1319,10 +1319,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1">
         <v>5</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="E3" s="1">
         <v>10</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="6" t="s">
         <v>31</v>
       </c>
@@ -1341,10 +1341,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="1">
         <v>5</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="E4" s="1">
         <v>10</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="6" t="s">
         <v>32</v>
       </c>
@@ -1363,10 +1363,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="1">
         <v>5</v>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="E5" s="1">
         <v>10</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="6" t="s">
         <v>33</v>
       </c>
@@ -1385,10 +1385,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15"/>
+      <c r="A6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
@@ -1398,7 +1398,7 @@
       <c r="E6" s="1">
         <v>10</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
@@ -1407,10 +1407,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="1">
         <v>5</v>
       </c>
@@ -1420,15 +1420,15 @@
       <c r="E7" s="1">
         <v>10</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="1">
         <v>5</v>
       </c>
@@ -1438,17 +1438,17 @@
       <c r="E8" s="1">
         <v>10</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19" t="s">
+      <c r="F8" s="22"/>
+      <c r="G8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="1">
         <v>5</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="E9" s="1">
         <v>10</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
@@ -1467,10 +1467,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1480,7 +1480,7 @@
       <c r="E10" s="1">
         <v>10</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
@@ -1489,10 +1489,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19"/>
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -1502,7 +1502,7 @@
       <c r="E11" s="1">
         <v>10</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
@@ -1511,10 +1511,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="1">
         <v>5</v>
       </c>
@@ -1524,7 +1524,7 @@
       <c r="E12" s="1">
         <v>10</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1533,10 +1533,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="1">
         <v>5</v>
       </c>
@@ -1546,7 +1546,7 @@
       <c r="E13" s="1">
         <v>10</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
@@ -1555,22 +1555,22 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="19"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
@@ -1583,7 +1583,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1597,7 +1597,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1609,7 +1609,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1621,7 +1621,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1633,7 +1633,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1647,7 +1647,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="23"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1659,7 +1659,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="23"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1671,7 +1671,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="23"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1732,11 +1732,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:H14"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:F13"/>
@@ -1753,6 +1748,11 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1875,24 +1875,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="16"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +1902,7 @@
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="6" t="s">
         <v>30</v>
       </c>
@@ -1911,10 +1911,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1">
         <v>5</v>
       </c>
@@ -1924,7 +1924,7 @@
       <c r="E3" s="3">
         <v>10</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="6" t="s">
         <v>31</v>
       </c>
@@ -1933,10 +1933,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="1">
         <v>5</v>
       </c>
@@ -1946,7 +1946,7 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="6" t="s">
         <v>32</v>
       </c>
@@ -1955,10 +1955,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="1">
         <v>5</v>
       </c>
@@ -1968,7 +1968,7 @@
       <c r="E5" s="3">
         <v>10</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="6" t="s">
         <v>33</v>
       </c>
@@ -1977,10 +1977,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15"/>
+      <c r="A6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
@@ -1990,7 +1990,7 @@
       <c r="E6" s="3">
         <v>10</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
@@ -1999,10 +1999,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="1">
         <v>5</v>
       </c>
@@ -2012,15 +2012,15 @@
       <c r="E7" s="3">
         <v>10</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="1">
         <v>5</v>
       </c>
@@ -2030,17 +2030,17 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19" t="s">
+      <c r="F8" s="22"/>
+      <c r="G8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="1">
         <v>5</v>
       </c>
@@ -2050,7 +2050,7 @@
       <c r="E9" s="3">
         <v>10</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
@@ -2059,10 +2059,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -2072,7 +2072,7 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
@@ -2081,10 +2081,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19"/>
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -2094,7 +2094,7 @@
       <c r="E11" s="3">
         <v>10</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
@@ -2103,10 +2103,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="1">
         <v>5</v>
       </c>
@@ -2116,7 +2116,7 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="7" t="s">
         <v>26</v>
       </c>
@@ -2125,10 +2125,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="1">
         <v>5</v>
       </c>
@@ -2138,7 +2138,7 @@
       <c r="E13" s="3">
         <v>10</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
@@ -2147,22 +2147,22 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="19"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -2182,7 +2182,7 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2199,7 +2199,7 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -2214,7 +2214,7 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
@@ -2229,7 +2229,7 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
@@ -2244,7 +2244,7 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2261,7 +2261,7 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="23"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2276,7 +2276,7 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="23"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
@@ -2291,7 +2291,7 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="23"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
@@ -2307,6 +2307,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A15:D15"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G8:H8"/>
@@ -2323,11 +2328,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2480,18 +2480,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2513,6 +2513,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3E385B-6A76-4FBB-B927-F57099B6C822}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1C46DBC-9747-43C5-8BD2-A3AA9186CCF6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2526,12 +2534,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3E385B-6A76-4FBB-B927-F57099B6C822}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>